--- a/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.correctiveAction` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.correctiveAction` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.correctiveAction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DeviceDefinition</t>
   </si>
   <si>
     <t>ID</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.recall` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.recall` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.correctiveAction.recall` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:recall.id</t>
@@ -428,7 +428,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.scope` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.scope` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.correctiveAction.scope` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:scope.id</t>
@@ -460,7 +460,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.period` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.period` is mapped to FHIR R4 structure `DeviceDefinition`, but has no target element specified.</t>
+Element `DeviceDefinition.correctiveAction.period` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -826,7 +826,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.4609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="148.08984375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="153">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DeviceDefinition.correctiveAction` 0..1 `BackboneElement`
 Following are the generation technical comments:
-Element `DeviceDefinition.correctiveAction` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.correctiveAction` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -345,7 +345,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.recall` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.recall` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.correctiveAction.recall` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:recall.id</t>
@@ -392,6 +392,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.recall</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -428,7 +431,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.scope` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.scope` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.correctiveAction.scope` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:scope.id</t>
@@ -438,6 +441,9 @@
   </si>
   <si>
     <t>Extension.extension:scope.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.scope</t>
   </si>
   <si>
     <t>Extension.extension:scope.value[x]</t>
@@ -460,7 +466,7 @@
   </si>
   <si>
     <t>Element `DeviceDefinition.correctiveAction.period` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.period` is will have a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+Element `DeviceDefinition.correctiveAction.period` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -470,6 +476,9 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -826,7 +835,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="148.08984375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="143.4609375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1634,7 +1643,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1676,7 +1685,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>79</v>
@@ -1691,15 +1700,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1722,7 +1731,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1781,7 +1790,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1793,21 +1802,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1832,14 +1841,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1908,7 +1917,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2011,7 +2020,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2116,7 +2125,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2159,7 +2168,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2201,7 +2210,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -2216,15 +2225,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2247,13 +2256,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2304,7 +2313,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2316,21 +2325,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2355,14 +2364,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2431,7 +2440,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2534,7 +2543,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2639,7 +2648,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2682,7 +2691,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2724,7 +2733,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -2739,15 +2748,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2770,13 +2779,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2827,7 +2836,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2839,18 +2848,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2932,7 +2941,7 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -2947,15 +2956,15 @@
         <v>77</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -2978,13 +2987,13 @@
         <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3035,7 +3044,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3047,10 +3056,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
+++ b/StructureDefinition-ext-R5-DeviceDefinition.correctiveAction.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -344,8 +344,7 @@
     <t>When a field safety action has been initiated but not yet resulted in a recall, this element will be set to 'false'.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.correctiveAction.recall` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.recall` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.correctiveAction.recall` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:recall.id</t>
@@ -392,9 +391,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.recall</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -430,8 +426,7 @@
     <t>The scope of the corrective action - whether the action targeted all units of a given device model, or only a specific set of batches identified by lot numbers, or individually identified devices identified by the serial name.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.correctiveAction.scope` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.scope` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.correctiveAction.scope` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:scope.id</t>
@@ -441,9 +436,6 @@
   </si>
   <si>
     <t>Extension.extension:scope.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.scope</t>
   </si>
   <si>
     <t>Extension.extension:scope.value[x]</t>
@@ -453,6 +445,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The type or scope of the corrective action.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-device-correctiveactionscope-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:period</t>
   </si>
   <si>
@@ -465,8 +466,7 @@
     <t>Start and end dates of the  corrective action.</t>
   </si>
   <si>
-    <t>Element `DeviceDefinition.correctiveAction.period` is part of an existing definition because parent element `DeviceDefinition.correctiveAction` requires a cross-version extension.
-Element `DeviceDefinition.correctiveAction.period` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
+    <t>Element `DeviceDefinition.correctiveAction.period` has a context of DeviceDefinition based on following the parent source element upwards and mapping to `DeviceDefinition`.</t>
   </si>
   <si>
     <t>Extension.extension:period.id</t>
@@ -476,9 +476,6 @@
   </si>
   <si>
     <t>Extension.extension:period.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DeviceDefinition.correctiveAction.period</t>
   </si>
   <si>
     <t>Extension.extension:period.value[x]</t>
@@ -835,7 +832,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="143.4609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="142.1015625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -845,8 +842,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="34.83984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="77.20703125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1643,72 +1640,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>120</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1731,7 +1728,7 @@
         <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L9" t="s" s="2">
         <v>102</v>
@@ -1790,7 +1787,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1802,21 +1799,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1841,14 +1838,14 @@
         <v>94</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1917,7 +1914,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>107</v>
@@ -2020,7 +2017,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>109</v>
@@ -2125,7 +2122,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>115</v>
@@ -2168,7 +2165,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2210,30 +2207,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2256,13 +2253,13 @@
         <v>77</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2289,13 +2286,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>77</v>
+        <v>137</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2313,7 +2310,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2325,21 +2322,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2364,14 +2361,14 @@
         <v>94</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2440,7 +2437,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>107</v>
@@ -2543,7 +2540,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>109</v>
@@ -2648,7 +2645,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>115</v>
@@ -2691,7 +2688,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2733,22 +2730,22 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="19">
@@ -2756,7 +2753,7 @@
         <v>148</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2782,10 +2779,10 @@
         <v>149</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2836,7 +2833,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2848,18 +2845,18 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -2941,30 +2938,30 @@
         <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK20" t="s" s="2">
         <v>121</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>122</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3044,7 +3041,7 @@
         <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -3056,10 +3053,10 @@
         <v>77</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
